--- a/src/Documentation.xlsx
+++ b/src/Documentation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Phase 1" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
   <si>
     <t>Futuro. Mining con la información</t>
   </si>
@@ -59,9 +59,6 @@
     <t>ROSI</t>
   </si>
   <si>
-    <t>Ir a internet y copiar las paginas de un dia ponerle en txt, hacer un parseo y generar un csv con las palabras y su conteo</t>
-  </si>
-  <si>
     <t>2 Partes</t>
   </si>
   <si>
@@ -114,6 +111,18 @@
   </si>
   <si>
     <t>Agarrar varias paginas de Finanzas</t>
+  </si>
+  <si>
+    <t>Hacer un parseo del archivo txt y generar un csv con las palabras y su conteo</t>
+  </si>
+  <si>
+    <t>Michael Cohen, the longtime personal attorney for President Donald Trump, filed court papers Wednesday indicating he would assert his Fifth Amendment rights against self-incrimination regarding his involvement in a hush money deal involving porn star Stormy Daniels and the President.</t>
+  </si>
+  <si>
+    <t>AMBAS</t>
+  </si>
+  <si>
+    <t>Ir a internet, acceder a los sites y copiar las paginas de un dia ponerlas en un txt   (Periodico_aaaammdd.txt)</t>
   </si>
 </sst>
 </file>
@@ -142,7 +151,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -166,6 +175,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -180,7 +195,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
@@ -191,6 +206,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -496,274 +515,264 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M37"/>
+  <dimension ref="A1:M42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
       <c r="M16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A18" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A21" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A22" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A23" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B23" s="6">
         <v>10</v>
       </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A24" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B24" s="6">
         <v>50</v>
       </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="s">
         <v>9</v>
-      </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B22" s="5">
-        <v>150</v>
-      </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B23" s="5">
-        <v>10</v>
-      </c>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B24" s="5">
-        <v>5</v>
-      </c>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
-        <v>4</v>
       </c>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -776,76 +785,166 @@
       <c r="J26" s="5"/>
       <c r="K26" s="5"/>
       <c r="L26" s="5"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="4">
+      <c r="M26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A27" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" s="5">
+        <v>150</v>
+      </c>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A28" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" s="5">
+        <v>10</v>
+      </c>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A29" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="5">
+        <v>5</v>
+      </c>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A31" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="4">
         <v>43208</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
         <v>3</v>
       </c>
-      <c r="B29">
+      <c r="B34">
         <v>1</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C34" t="s">
         <v>2</v>
       </c>
-      <c r="D29">
+      <c r="D34">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B30">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B35">
         <v>2</v>
       </c>
-      <c r="D30">
+      <c r="D35">
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B31">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B36">
         <v>3</v>
       </c>
-      <c r="D31">
+      <c r="D36">
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B32" s="3" t="s">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B37" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3" t="s">
+      <c r="C37" s="3"/>
+      <c r="D37" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B33">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B38">
         <v>9</v>
       </c>
-      <c r="D33">
+      <c r="D38">
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B34">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B39">
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D37" s="1"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D42" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A18:L20"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -857,7 +956,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
